--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.7235041040694</v>
+        <v>42.924731</v>
       </c>
       <c r="H2">
-        <v>41.7235041040694</v>
+        <v>128.774193</v>
       </c>
       <c r="I2">
-        <v>0.8986457477903084</v>
+        <v>0.8780494305754949</v>
       </c>
       <c r="J2">
-        <v>0.8986457477903084</v>
+        <v>0.878049430575495</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="N2">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="Q2">
-        <v>124.7256795124138</v>
+        <v>201.7250594993734</v>
       </c>
       <c r="R2">
-        <v>124.7256795124138</v>
+        <v>1815.52553549436</v>
       </c>
       <c r="S2">
-        <v>0.8986457477903084</v>
+        <v>0.8482392350028691</v>
       </c>
       <c r="T2">
-        <v>0.8986457477903084</v>
+        <v>0.8482392350028691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3325137236939</v>
+        <v>42.924731</v>
       </c>
       <c r="H3">
-        <v>4.3325137236939</v>
+        <v>128.774193</v>
       </c>
       <c r="I3">
-        <v>0.0933141910930953</v>
+        <v>0.8780494305754949</v>
       </c>
       <c r="J3">
-        <v>0.0933141910930953</v>
+        <v>0.878049430575495</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.98933855606459</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>2.98933855606459</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03395047537709522</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03395047537709522</v>
       </c>
       <c r="Q3">
-        <v>12.95135031891714</v>
+        <v>7.089348414254334</v>
       </c>
       <c r="R3">
-        <v>12.95135031891714</v>
+        <v>63.804135728289</v>
       </c>
       <c r="S3">
-        <v>0.0933141910930953</v>
+        <v>0.02981019557262582</v>
       </c>
       <c r="T3">
-        <v>0.0933141910930953</v>
+        <v>0.02981019557262582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.373294508787408</v>
+        <v>0.1486296666666667</v>
       </c>
       <c r="H4">
-        <v>0.373294508787408</v>
+        <v>0.445889</v>
       </c>
       <c r="I4">
-        <v>0.008040061116596338</v>
+        <v>0.003040303133950735</v>
       </c>
       <c r="J4">
-        <v>0.008040061116596338</v>
+        <v>0.003040303133950736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.98933855606459</v>
+        <v>4.699506666666667</v>
       </c>
       <c r="N4">
-        <v>2.98933855606459</v>
+        <v>14.09852</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9660495246229048</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9660495246229047</v>
       </c>
       <c r="Q4">
-        <v>1.115903667885391</v>
+        <v>0.6984861093644444</v>
       </c>
       <c r="R4">
-        <v>1.115903667885391</v>
+        <v>6.28637498428</v>
       </c>
       <c r="S4">
-        <v>0.008040061116596338</v>
+        <v>0.002937083397262636</v>
       </c>
       <c r="T4">
-        <v>0.008040061116596338</v>
+        <v>0.002937083397262636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1486296666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.445889</v>
+      </c>
+      <c r="I5">
+        <v>0.003040303133950735</v>
+      </c>
+      <c r="J5">
+        <v>0.003040303133950736</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.495473</v>
+      </c>
+      <c r="O5">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="P5">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="Q5">
+        <v>0.02454732894411111</v>
+      </c>
+      <c r="R5">
+        <v>0.220925960497</v>
+      </c>
+      <c r="S5">
+        <v>0.0001032197366880999</v>
+      </c>
+      <c r="T5">
+        <v>0.0001032197366880999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.009066</v>
+      </c>
+      <c r="H6">
+        <v>15.027198</v>
+      </c>
+      <c r="I6">
+        <v>0.1024632524549792</v>
+      </c>
+      <c r="J6">
+        <v>0.1024632524549792</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.699506666666667</v>
+      </c>
+      <c r="N6">
+        <v>14.09852</v>
+      </c>
+      <c r="O6">
+        <v>0.9660495246229048</v>
+      </c>
+      <c r="P6">
+        <v>0.9660495246229047</v>
+      </c>
+      <c r="Q6">
+        <v>23.54013906077333</v>
+      </c>
+      <c r="R6">
+        <v>211.86125154696</v>
+      </c>
+      <c r="S6">
+        <v>0.09898457632544934</v>
+      </c>
+      <c r="T6">
+        <v>0.09898457632544934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.009066</v>
+      </c>
+      <c r="H7">
+        <v>15.027198</v>
+      </c>
+      <c r="I7">
+        <v>0.1024632524549792</v>
+      </c>
+      <c r="J7">
+        <v>0.1024632524549792</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.495473</v>
+      </c>
+      <c r="O7">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="P7">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="Q7">
+        <v>0.8272856527393333</v>
+      </c>
+      <c r="R7">
+        <v>7.445570874653999</v>
+      </c>
+      <c r="S7">
+        <v>0.003478676129529862</v>
+      </c>
+      <c r="T7">
+        <v>0.003478676129529863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8040363333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.412109</v>
+      </c>
+      <c r="I8">
+        <v>0.01644701383557516</v>
+      </c>
+      <c r="J8">
+        <v>0.01644701383557517</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.699506666666667</v>
+      </c>
+      <c r="N8">
+        <v>14.09852</v>
+      </c>
+      <c r="O8">
+        <v>0.9660495246229048</v>
+      </c>
+      <c r="P8">
+        <v>0.9660495246229047</v>
+      </c>
+      <c r="Q8">
+        <v>3.778574108742223</v>
+      </c>
+      <c r="R8">
+        <v>34.00716697868</v>
+      </c>
+      <c r="S8">
+        <v>0.01588862989732373</v>
+      </c>
+      <c r="T8">
+        <v>0.01588862989732373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8040363333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.412109</v>
+      </c>
+      <c r="I9">
+        <v>0.01644701383557516</v>
+      </c>
+      <c r="J9">
+        <v>0.01644701383557517</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1651576666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.495473</v>
+      </c>
+      <c r="O9">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="P9">
+        <v>0.03395047537709522</v>
+      </c>
+      <c r="Q9">
+        <v>0.1327927647285556</v>
+      </c>
+      <c r="R9">
+        <v>1.195134882557</v>
+      </c>
+      <c r="S9">
+        <v>0.000558383938251439</v>
+      </c>
+      <c r="T9">
+        <v>0.0005583839382514391</v>
       </c>
     </row>
   </sheetData>
